--- a/project/01_pair_trading/pairs_2023-01-05.xlsx
+++ b/project/01_pair_trading/pairs_2023-01-05.xlsx
@@ -28,313 +28,313 @@
     <t>indice</t>
   </si>
   <si>
+    <t>BNPQF</t>
+  </si>
+  <si>
+    <t>GPDNF</t>
+  </si>
+  <si>
+    <t>PGPEF</t>
+  </si>
+  <si>
+    <t>LVMHF</t>
+  </si>
+  <si>
+    <t>ERFSF</t>
+  </si>
+  <si>
+    <t>DASTY</t>
+  </si>
+  <si>
+    <t>CAPMF</t>
+  </si>
+  <si>
+    <t>WWLNF</t>
+  </si>
+  <si>
+    <t>CODGF</t>
+  </si>
+  <si>
+    <t>UNBLF</t>
+  </si>
+  <si>
+    <t>PDRDF</t>
+  </si>
+  <si>
+    <t>STMEF</t>
+  </si>
+  <si>
     <t>AIQUF</t>
   </si>
   <si>
+    <t>VIVEF</t>
+  </si>
+  <si>
+    <t>THLLY</t>
+  </si>
+  <si>
+    <t>VEOEY</t>
+  </si>
+  <si>
+    <t>TLPFY</t>
+  </si>
+  <si>
+    <t>SBGSF</t>
+  </si>
+  <si>
+    <t>PPRUF</t>
+  </si>
+  <si>
+    <t>LGRDY</t>
+  </si>
+  <si>
+    <t>STLA</t>
+  </si>
+  <si>
+    <t>LRLCF</t>
+  </si>
+  <si>
+    <t>CRARF</t>
+  </si>
+  <si>
     <t>AXAHF</t>
   </si>
   <si>
+    <t>MGDDF</t>
+  </si>
+  <si>
+    <t>RNSDF</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>CRERF</t>
+  </si>
+  <si>
+    <t>SCGLF</t>
+  </si>
+  <si>
+    <t>SNYNF</t>
+  </si>
+  <si>
+    <t>ESLOF</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
-    <t>BNPQF</t>
+    <t>VCISY</t>
   </si>
   <si>
     <t>BOUYF</t>
   </si>
   <si>
-    <t>CAPMF</t>
-  </si>
-  <si>
-    <t>CODGF</t>
-  </si>
-  <si>
-    <t>CRARF</t>
-  </si>
-  <si>
-    <t>CRERF</t>
-  </si>
-  <si>
-    <t>DASTY</t>
+    <t>SAFRF</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>HESAY</t>
   </si>
   <si>
     <t>ENGIY</t>
   </si>
   <si>
-    <t>ERFSF</t>
-  </si>
-  <si>
-    <t>ESLOF</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>GPDNF</t>
-  </si>
-  <si>
-    <t>HESAY</t>
-  </si>
-  <si>
-    <t>LRLCF</t>
-  </si>
-  <si>
-    <t>LVMHF</t>
-  </si>
-  <si>
-    <t>MGDDF</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>OCBI</t>
-  </si>
-  <si>
-    <t>PDRDF</t>
-  </si>
-  <si>
-    <t>PGPEF</t>
-  </si>
-  <si>
-    <t>PPRUF</t>
-  </si>
-  <si>
-    <t>RNSDF</t>
-  </si>
-  <si>
-    <t>SAFRF</t>
-  </si>
-  <si>
-    <t>SBGSF</t>
-  </si>
-  <si>
-    <t>SCGLF</t>
-  </si>
-  <si>
-    <t>SNYNF</t>
-  </si>
-  <si>
-    <t>STLA</t>
-  </si>
-  <si>
-    <t>STMEF</t>
-  </si>
-  <si>
-    <t>THLLY</t>
-  </si>
-  <si>
-    <t>TLPFY</t>
-  </si>
-  <si>
-    <t>UNBLF</t>
-  </si>
-  <si>
-    <t>VCISY</t>
-  </si>
-  <si>
-    <t>WWLNF</t>
-  </si>
-  <si>
     <t>TTFNF</t>
   </si>
   <si>
-    <t>VEOEY</t>
-  </si>
-  <si>
-    <t>VIVEF</t>
-  </si>
-  <si>
     <t>CAC 40</t>
   </si>
   <si>
+    <t>ZLDSF</t>
+  </si>
+  <si>
+    <t>VNNVF</t>
+  </si>
+  <si>
+    <t>ENAKF</t>
+  </si>
+  <si>
+    <t>MURGY</t>
+  </si>
+  <si>
+    <t>HLBZF</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>DBOEY</t>
+  </si>
+  <si>
+    <t>COVTY</t>
+  </si>
+  <si>
+    <t>DTEGF</t>
+  </si>
+  <si>
+    <t>SMEGF</t>
+  </si>
+  <si>
+    <t>VLKAF</t>
+  </si>
+  <si>
+    <t>SMMNY</t>
+  </si>
+  <si>
+    <t>DPSGY</t>
+  </si>
+  <si>
+    <t>QGEN</t>
+  </si>
+  <si>
+    <t>CTTAF</t>
+  </si>
+  <si>
+    <t>PMMAF</t>
+  </si>
+  <si>
+    <t>BMWYY</t>
+  </si>
+  <si>
+    <t>MTUAF</t>
+  </si>
+  <si>
+    <t>MKGAF</t>
+  </si>
+  <si>
+    <t>HVRRY</t>
+  </si>
+  <si>
+    <t>SUVPF</t>
+  </si>
+  <si>
+    <t>RWEOY</t>
+  </si>
+  <si>
+    <t>BFFAF</t>
+  </si>
+  <si>
+    <t>FMS</t>
+  </si>
+  <si>
+    <t>FSNUY</t>
+  </si>
+  <si>
+    <t>EADSF</t>
+  </si>
+  <si>
+    <t>BNTGY</t>
+  </si>
+  <si>
+    <t>SMAWF</t>
+  </si>
+  <si>
+    <t>SYIEY</t>
+  </si>
+  <si>
     <t>ADDDF</t>
   </si>
   <si>
-    <t>AZSEY</t>
+    <t>MBGAF</t>
+  </si>
+  <si>
+    <t>HENKY</t>
+  </si>
+  <si>
+    <t>BDRFY</t>
+  </si>
+  <si>
+    <t>POAHY</t>
   </si>
   <si>
     <t>BAYZF</t>
   </si>
   <si>
-    <t>BDRFY</t>
-  </si>
-  <si>
-    <t>BFFAF</t>
-  </si>
-  <si>
-    <t>BMWYY</t>
-  </si>
-  <si>
-    <t>BNTGY</t>
-  </si>
-  <si>
-    <t>CTTAF</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>DBOEY</t>
-  </si>
-  <si>
-    <t>DPSGY</t>
-  </si>
-  <si>
-    <t>DTEGF</t>
-  </si>
-  <si>
-    <t>DTRUY</t>
-  </si>
-  <si>
-    <t>EADSF</t>
-  </si>
-  <si>
-    <t>ENAKF</t>
-  </si>
-  <si>
-    <t>FMS</t>
-  </si>
-  <si>
-    <t>FSNUY</t>
-  </si>
-  <si>
-    <t>HLBZF</t>
-  </si>
-  <si>
-    <t>HVRRY</t>
+    <t>LIN</t>
   </si>
   <si>
     <t>IFNNF</t>
   </si>
   <si>
-    <t>LIN</t>
-  </si>
-  <si>
-    <t>MBGAF</t>
-  </si>
-  <si>
-    <t>MKGAF</t>
-  </si>
-  <si>
-    <t>MTUAF</t>
-  </si>
-  <si>
-    <t>MURGY</t>
-  </si>
-  <si>
-    <t>PMMAF</t>
-  </si>
-  <si>
-    <t>POAHY</t>
-  </si>
-  <si>
-    <t>QGEN</t>
-  </si>
-  <si>
-    <t>RWEOY</t>
-  </si>
-  <si>
-    <t>SAP</t>
-  </si>
-  <si>
-    <t>SMAWF</t>
-  </si>
-  <si>
-    <t>SMEGF</t>
-  </si>
-  <si>
-    <t>SUVPF</t>
-  </si>
-  <si>
-    <t>VLKAF</t>
-  </si>
-  <si>
-    <t>SMMNY</t>
-  </si>
-  <si>
-    <t>ZLDSF</t>
-  </si>
-  <si>
-    <t>SYIEY</t>
-  </si>
-  <si>
-    <t>HENKY</t>
-  </si>
-  <si>
     <t>Dax</t>
   </si>
   <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>GS-PK</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
     <t>AAPL</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>DOW</t>
-  </si>
-  <si>
-    <t>GS-PK</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>HON</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>MCD</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>WBA</t>
   </si>
   <si>
     <t>Dow Jones</t>
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -875,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -897,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -941,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -985,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -1062,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -1304,7 +1304,7 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -1315,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
         <v>42</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
         <v>42</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
         <v>42</v>
@@ -1403,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
         <v>42</v>
@@ -1414,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
         <v>42</v>
@@ -1436,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>42</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>42</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>42</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
         <v>42</v>
@@ -1480,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
         <v>42</v>
@@ -1491,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
         <v>42</v>
@@ -1502,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
         <v>42</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
         <v>42</v>
@@ -1535,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>42</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>42</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
         <v>42</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
         <v>42</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>42</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
         <v>42</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
         <v>42</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>42</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
         <v>42</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>31</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
         <v>42</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
         <v>42</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
         <v>42</v>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
         <v>42</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>42</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
         <v>42</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
         <v>42</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
         <v>42</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
         <v>42</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
         <v>42</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
         <v>42</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
         <v>42</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
         <v>42</v>
@@ -1799,7 +1799,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>42</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
         <v>42</v>
@@ -1829,10 +1829,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
         <v>42</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
         <v>42</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
         <v>42</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
         <v>42</v>
@@ -1876,7 +1876,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
         <v>42</v>
@@ -1887,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
         <v>42</v>
@@ -1898,7 +1898,7 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
         <v>42</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
         <v>42</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
         <v>42</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
         <v>42</v>
@@ -1942,7 +1942,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
         <v>42</v>
@@ -1953,7 +1953,7 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
         <v>42</v>
@@ -1964,7 +1964,7 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
         <v>42</v>
@@ -1986,7 +1986,7 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
         <v>42</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
         <v>42</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
         <v>42</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
         <v>42</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
         <v>42</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
         <v>42</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
         <v>42</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
         <v>42</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
         <v>27</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
         <v>42</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
         <v>42</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
         <v>42</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
         <v>42</v>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s">
         <v>42</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B118" t="s">
         <v>27</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
         <v>42</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
         <v>42</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
         <v>42</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C122" t="s">
         <v>42</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
         <v>42</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
         <v>42</v>
@@ -2214,10 +2214,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
         <v>42</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
         <v>42</v>
@@ -2239,7 +2239,7 @@
         <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
         <v>42</v>
@@ -2250,7 +2250,7 @@
         <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
         <v>42</v>
@@ -2283,7 +2283,7 @@
         <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
         <v>42</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C132" t="s">
         <v>42</v>
@@ -2305,7 +2305,7 @@
         <v>28</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C133" t="s">
         <v>42</v>
@@ -2316,7 +2316,7 @@
         <v>28</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C134" t="s">
         <v>42</v>
@@ -2327,7 +2327,7 @@
         <v>28</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C135" t="s">
         <v>42</v>
@@ -2338,7 +2338,7 @@
         <v>28</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
         <v>42</v>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C137" t="s">
         <v>42</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
         <v>42</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>29</v>
+      </c>
+      <c r="B139" t="s">
         <v>30</v>
-      </c>
-      <c r="B139" t="s">
-        <v>32</v>
       </c>
       <c r="C139" t="s">
         <v>42</v>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C140" t="s">
         <v>42</v>
@@ -2390,10 +2390,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
         <v>42</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C142" t="s">
         <v>42</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C143" t="s">
         <v>42</v>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C144" t="s">
         <v>42</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
         <v>42</v>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s">
         <v>42</v>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
         <v>42</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C148" t="s">
         <v>42</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
         <v>42</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C150" t="s">
         <v>42</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
         <v>42</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C152" t="s">
         <v>42</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B155" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C155" t="s">
         <v>42</v>
@@ -2582,7 +2582,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -2593,7 +2593,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
@@ -2604,7 +2604,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -2615,7 +2615,7 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
@@ -2626,7 +2626,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -2637,7 +2637,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -2648,7 +2648,7 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -2659,7 +2659,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -2670,7 +2670,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
@@ -2692,7 +2692,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
@@ -2714,7 +2714,7 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>81</v>
@@ -2725,7 +2725,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
@@ -2736,7 +2736,7 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
@@ -2747,7 +2747,7 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
@@ -2758,7 +2758,7 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>81</v>
@@ -2780,7 +2780,7 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
@@ -2791,7 +2791,7 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>81</v>
@@ -2802,7 +2802,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>81</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>81</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>81</v>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>81</v>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>81</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
@@ -2876,10 +2876,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>81</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>81</v>
@@ -2901,7 +2901,7 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>81</v>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>81</v>
@@ -2923,7 +2923,7 @@
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>81</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>81</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
         <v>81</v>
@@ -2956,7 +2956,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>81</v>
@@ -2967,7 +2967,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>81</v>
@@ -2978,7 +2978,7 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>81</v>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>81</v>
@@ -2997,10 +2997,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>81</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
         <v>81</v>
@@ -3030,10 +3030,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>81</v>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
         <v>81</v>
@@ -3052,10 +3052,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>81</v>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -3074,10 +3074,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
         <v>81</v>
@@ -3088,7 +3088,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>81</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>81</v>
@@ -3107,10 +3107,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>81</v>
@@ -3118,10 +3118,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
         <v>81</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
         <v>81</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
         <v>81</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
         <v>81</v>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
         <v>81</v>
@@ -3195,10 +3195,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
         <v>81</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
         <v>53</v>
-      </c>
-      <c r="B59" t="s">
-        <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>81</v>
@@ -3217,10 +3217,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
         <v>81</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
         <v>81</v>
@@ -3239,10 +3239,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
         <v>81</v>
@@ -3250,10 +3250,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
         <v>81</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
         <v>81</v>
@@ -3272,10 +3272,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
         <v>81</v>
@@ -3283,10 +3283,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
@@ -3316,10 +3316,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
         <v>81</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
         <v>81</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
         <v>81</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
         <v>81</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
         <v>81</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
         <v>81</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
         <v>81</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
         <v>57</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s">
         <v>81</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
         <v>81</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
         <v>81</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
         <v>81</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
         <v>81</v>
@@ -3503,10 +3503,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C86" t="s">
         <v>81</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
         <v>81</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
         <v>81</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
         <v>81</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
         <v>81</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" t="s">
         <v>81</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
         <v>57</v>
-      </c>
-      <c r="B92" t="s">
-        <v>61</v>
       </c>
       <c r="C92" t="s">
         <v>81</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C93" t="s">
         <v>81</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C94" t="s">
         <v>81</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
         <v>66</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C96" t="s">
         <v>81</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C97" t="s">
         <v>81</v>
@@ -3635,10 +3635,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C98" t="s">
         <v>81</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C99" t="s">
         <v>81</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C100" t="s">
         <v>81</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
         <v>81</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C102" t="s">
         <v>81</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C103" t="s">
         <v>81</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
         <v>81</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
         <v>81</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
         <v>81</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C107" t="s">
         <v>81</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C108" t="s">
         <v>81</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
         <v>81</v>
@@ -3770,7 +3770,7 @@
         <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C110" t="s">
         <v>81</v>
@@ -3781,7 +3781,7 @@
         <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C111" t="s">
         <v>81</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C112" t="s">
         <v>81</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
         <v>69</v>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
         <v>81</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" t="s">
         <v>81</v>
@@ -3833,10 +3833,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C116" t="s">
         <v>81</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C117" t="s">
         <v>81</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s">
         <v>81</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C119" t="s">
         <v>81</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B120" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
         <v>81</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C121" t="s">
         <v>81</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
         <v>81</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s">
         <v>81</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B124" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C124" t="s">
         <v>81</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
         <v>81</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B126" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C126" t="s">
         <v>81</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C127" t="s">
         <v>81</v>
@@ -3968,7 +3968,7 @@
         <v>64</v>
       </c>
       <c r="B128" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
         <v>81</v>
@@ -3979,7 +3979,7 @@
         <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C129" t="s">
         <v>81</v>
@@ -3990,7 +3990,7 @@
         <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C130" t="s">
         <v>81</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B131" t="s">
         <v>68</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C132" t="s">
         <v>81</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C133" t="s">
         <v>81</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C134" t="s">
         <v>81</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B135" t="s">
         <v>76</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C136" t="s">
         <v>81</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C137" t="s">
         <v>81</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B138" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C138" t="s">
         <v>81</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B139" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C139" t="s">
         <v>81</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B140" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C140" t="s">
         <v>81</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B141" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C141" t="s">
         <v>81</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B142" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C142" t="s">
         <v>81</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B143" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C143" t="s">
         <v>81</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B144" t="s">
         <v>76</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" t="s">
         <v>72</v>
-      </c>
-      <c r="B145" t="s">
-        <v>73</v>
       </c>
       <c r="C145" t="s">
         <v>81</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>70</v>
+      </c>
+      <c r="B146" t="s">
         <v>72</v>
-      </c>
-      <c r="B146" t="s">
-        <v>78</v>
       </c>
       <c r="C146" t="s">
         <v>81</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B147" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C147" t="s">
         <v>81</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
+        <v>72</v>
+      </c>
+      <c r="B148" t="s">
         <v>74</v>
-      </c>
-      <c r="B148" t="s">
-        <v>76</v>
       </c>
       <c r="C148" t="s">
         <v>81</v>
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>106</v>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>106</v>
@@ -4253,10 +4253,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>106</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>106</v>
@@ -4275,10 +4275,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>106</v>
@@ -4286,10 +4286,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>106</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>106</v>
@@ -4333,7 +4333,7 @@
         <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>106</v>
@@ -4344,7 +4344,7 @@
         <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>106</v>
@@ -4355,7 +4355,7 @@
         <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>106</v>
@@ -4366,7 +4366,7 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>106</v>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
@@ -4399,7 +4399,7 @@
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>106</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>106</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>106</v>
@@ -4429,10 +4429,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
         <v>106</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
         <v>106</v>
@@ -4451,10 +4451,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
@@ -4462,10 +4462,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>106</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>106</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>106</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
         <v>106</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>106</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
         <v>106</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
         <v>106</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>106</v>
@@ -4564,7 +4564,7 @@
         <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
         <v>106</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>106</v>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
         <v>106</v>
@@ -4597,7 +4597,7 @@
         <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
         <v>106</v>
@@ -4608,7 +4608,7 @@
         <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
@@ -4619,7 +4619,7 @@
         <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
         <v>106</v>
@@ -4630,7 +4630,7 @@
         <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>106</v>
@@ -4641,7 +4641,7 @@
         <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
         <v>106</v>
@@ -4652,7 +4652,7 @@
         <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
         <v>106</v>
@@ -4663,7 +4663,7 @@
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>106</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
         <v>106</v>
@@ -4696,7 +4696,7 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
         <v>106</v>
@@ -4707,7 +4707,7 @@
         <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>106</v>
@@ -4718,7 +4718,7 @@
         <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
         <v>106</v>
@@ -4726,10 +4726,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
         <v>106</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
         <v>106</v>
@@ -4748,10 +4748,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
         <v>106</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>106</v>
@@ -4773,7 +4773,7 @@
         <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>106</v>
@@ -4784,7 +4784,7 @@
         <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
         <v>106</v>
@@ -4792,10 +4792,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>106</v>
@@ -4803,10 +4803,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>106</v>
@@ -4814,10 +4814,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
         <v>106</v>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
         <v>106</v>
@@ -4836,10 +4836,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
         <v>106</v>
@@ -4847,10 +4847,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
         <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>106</v>
@@ -4858,10 +4858,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
         <v>106</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
         <v>100</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
         <v>106</v>
@@ -4891,10 +4891,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" t="s">
         <v>100</v>
-      </c>
-      <c r="B63" t="s">
-        <v>105</v>
       </c>
       <c r="C63" t="s">
         <v>106</v>
@@ -4902,10 +4902,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
         <v>100</v>
-      </c>
-      <c r="B64" t="s">
-        <v>102</v>
       </c>
       <c r="C64" t="s">
         <v>106</v>
@@ -4913,10 +4913,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s">
         <v>101</v>
-      </c>
-      <c r="B65" t="s">
-        <v>102</v>
       </c>
       <c r="C65" t="s">
         <v>106</v>
